--- a/codigo_final_organizado/Simulaciones/lineal_NO_estacionario_diferenciado/resultados_2_ESCENARIOS_ARIMA_CON_DIFF.xlsx
+++ b/codigo_final_organizado/Simulaciones/lineal_NO_estacionario_diferenciado/resultados_2_ESCENARIOS_ARIMA_CON_DIFF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,34 +533,34 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-29.58594266002269</v>
+        <v>25.77679270376048</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2773899765694136</v>
+        <v>0.2625177263493114</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3520066938433017</v>
+        <v>0.2944259860793316</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3458984302491903</v>
+        <v>0.3899669040155191</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2008932204931396</v>
+        <v>0.2108556712049222</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9192994385628257</v>
+        <v>0.9885378486184548</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2223096915907464</v>
+        <v>0.7735204568118509</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2121874556783101</v>
+        <v>0.7060159735653135</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2732250364388872</v>
+        <v>0.3023253714288707</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2718762812968205</v>
+        <v>0.2143114962025439</v>
       </c>
     </row>
     <row r="3">
@@ -586,34 +586,34 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-29.81456892708401</v>
+        <v>27.31157121970884</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1329195927293629</v>
+        <v>0.8137048345559498</v>
       </c>
       <c r="H3" t="n">
-        <v>0.348773127438318</v>
+        <v>0.5362415689082549</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3007338698022208</v>
+        <v>0.8862691152952242</v>
       </c>
       <c r="J3" t="n">
-        <v>0.233547284530438</v>
+        <v>0.5374089669908289</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9445587947520322</v>
+        <v>1.079531804581382</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2211160915349812</v>
+        <v>0.6059360466113632</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1607132646791693</v>
+        <v>0.49338771618396</v>
       </c>
       <c r="N3" t="n">
-        <v>0.346040419261883</v>
+        <v>0.685461050654633</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2761400669880931</v>
+        <v>0.6933953219620631</v>
       </c>
     </row>
     <row r="4">
@@ -639,34 +639,34 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-28.50311534103377</v>
+        <v>28.12308079889016</v>
       </c>
       <c r="G4" t="n">
-        <v>1.029022261495327</v>
+        <v>0.3225790553745564</v>
       </c>
       <c r="H4" t="n">
-        <v>1.033872705862857</v>
+        <v>0.3644925371099176</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9500008974139289</v>
+        <v>0.4629774148368815</v>
       </c>
       <c r="J4" t="n">
-        <v>1.058823887139563</v>
+        <v>0.4176243868851081</v>
       </c>
       <c r="K4" t="n">
-        <v>1.091087757775361</v>
+        <v>1.003046797508251</v>
       </c>
       <c r="L4" t="n">
-        <v>1.222606547691828</v>
+        <v>0.2981175496021654</v>
       </c>
       <c r="M4" t="n">
-        <v>1.191482971114805</v>
+        <v>0.2626959257833017</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7582560927910772</v>
+        <v>0.5860808137790211</v>
       </c>
       <c r="O4" t="n">
-        <v>1.080614968607168</v>
+        <v>0.2322457757711952</v>
       </c>
     </row>
     <row r="5">
@@ -692,34 +692,34 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-30.15175627172991</v>
+        <v>26.92358613791478</v>
       </c>
       <c r="G5" t="n">
-        <v>1.263570763567185</v>
+        <v>1.01158664024215</v>
       </c>
       <c r="H5" t="n">
-        <v>1.722763690300772</v>
+        <v>1.13602931111974</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8000664472724358</v>
+        <v>0.8508936460387351</v>
       </c>
       <c r="J5" t="n">
-        <v>2.281124982479382</v>
+        <v>1.60396320850908</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8635612700904995</v>
+        <v>0.8500459840964045</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9732847961500283</v>
+        <v>1.890531205045505</v>
       </c>
       <c r="M5" t="n">
-        <v>1.131176865200435</v>
+        <v>2.066331480047464</v>
       </c>
       <c r="N5" t="n">
-        <v>2.306624607337902</v>
+        <v>1.49183613310364</v>
       </c>
       <c r="O5" t="n">
-        <v>2.129448143326331</v>
+        <v>1.472402146149633</v>
       </c>
     </row>
     <row r="6">
@@ -745,34 +745,34 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-31.54265518772688</v>
+        <v>25.79666630224374</v>
       </c>
       <c r="G6" t="n">
-        <v>1.013337034305616</v>
+        <v>0.9525574174328825</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3375885062656138</v>
+        <v>2.567193971818427</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6573271215330375</v>
+        <v>0.7541983563640512</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1683836330262278</v>
+        <v>0.3931727160679734</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8559900516974257</v>
+        <v>0.8406811063688824</v>
       </c>
       <c r="L6" t="n">
-        <v>1.940525681598649</v>
+        <v>1.248952593035678</v>
       </c>
       <c r="M6" t="n">
-        <v>2.155346362896496</v>
+        <v>1.393675488116779</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3324331705858842</v>
+        <v>1.875894935729296</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4769386186250133</v>
+        <v>0.2067848932960737</v>
       </c>
     </row>
     <row r="7">
@@ -798,34 +798,34 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-32.33977200755232</v>
+        <v>25.43791639263172</v>
       </c>
       <c r="G7" t="n">
-        <v>0.466480362713536</v>
+        <v>0.4020277595577636</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2969603921201424</v>
+        <v>0.541444406771042</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4375100383993576</v>
+        <v>0.3569533342188804</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4693122139382794</v>
+        <v>0.2703098523538076</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8937256954219914</v>
+        <v>0.8906589738033739</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4889955311363189</v>
+        <v>0.2512816967665725</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4537063435974297</v>
+        <v>0.2751645067633461</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5660650315132125</v>
+        <v>0.1745740303991614</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2284251679119456</v>
+        <v>0.3990800244342653</v>
       </c>
     </row>
     <row r="8">
@@ -851,34 +851,34 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-32.60175979174303</v>
+        <v>24.40291983537906</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1389492969871227</v>
+        <v>0.8737193329234112</v>
       </c>
       <c r="H8" t="n">
-        <v>0.488228045578352</v>
+        <v>0.8440177444712131</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3111015717089669</v>
+        <v>0.72067952927955</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3236256370092634</v>
+        <v>0.3965972396936209</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9372049483613352</v>
+        <v>0.8347535226241747</v>
       </c>
       <c r="L8" t="n">
-        <v>0.521596125940925</v>
+        <v>0.2285845609792513</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4861431572700698</v>
+        <v>0.2644855082661787</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2173940656246026</v>
+        <v>0.7817946431952526</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3065756486553578</v>
+        <v>0.3520300934399639</v>
       </c>
     </row>
     <row r="9">
@@ -904,34 +904,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-33.15706582199781</v>
+        <v>22.96712407901793</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2804097791658672</v>
+        <v>1.221302280282329</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3130418503744022</v>
+        <v>0.1580283621872119</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3487958348231456</v>
+        <v>0.9413212019313514</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3746136222602504</v>
+        <v>0.4114480451613493</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9109719280776232</v>
+        <v>0.8287666550490203</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2637648054433633</v>
+        <v>0.6549120671590788</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3116695149866999</v>
+        <v>0.6921152441153984</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2483820464518837</v>
+        <v>0.3476930299897104</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2364787426444372</v>
+        <v>0.4466201660287621</v>
       </c>
     </row>
     <row r="10">
@@ -957,34 +957,34 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-35.30250182565474</v>
+        <v>23.47008885455995</v>
       </c>
       <c r="G10" t="n">
-        <v>1.754805120331711</v>
+        <v>0.2257492194867766</v>
       </c>
       <c r="H10" t="n">
-        <v>1.21114683045725</v>
+        <v>2.099676232984059</v>
       </c>
       <c r="I10" t="n">
-        <v>1.287012706590904</v>
+        <v>0.3480433069878891</v>
       </c>
       <c r="J10" t="n">
-        <v>1.239999194697369</v>
+        <v>0.9481074596915887</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9214661283532573</v>
+        <v>0.9697381548787531</v>
       </c>
       <c r="L10" t="n">
-        <v>1.265177450810494</v>
+        <v>0.7261019011129686</v>
       </c>
       <c r="M10" t="n">
-        <v>1.402896593995807</v>
+        <v>0.6888596560266942</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4037392188905307</v>
+        <v>1.612410627313354</v>
       </c>
       <c r="O10" t="n">
-        <v>1.001856850862559</v>
+        <v>1.146124265211258</v>
       </c>
     </row>
     <row r="11">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-36.47631154450049</v>
+        <v>21.48748792140033</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7959617737008944</v>
+        <v>1.744986768244521</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7290333831555831</v>
+        <v>1.996854802546846</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5933553954351604</v>
+        <v>1.484429351788485</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4014186894972314</v>
+        <v>1.585849887824712</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8590124787469899</v>
+        <v>0.9176385355908128</v>
       </c>
       <c r="L11" t="n">
-        <v>0.441747497297709</v>
+        <v>0.5794622118080914</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5608781568748276</v>
+        <v>0.5451393203203033</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6109073261779518</v>
+        <v>1.320844807581292</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2124457034428851</v>
+        <v>1.566322376313704</v>
       </c>
     </row>
     <row r="12">
@@ -1063,34 +1063,34 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-35.57062813352832</v>
+        <v>18.42521173482216</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6890621089158941</v>
+        <v>2.824873719333177</v>
       </c>
       <c r="H12" t="n">
-        <v>1.305568041140387</v>
+        <v>0.3200020371851184</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7454720504610423</v>
+        <v>2.421898148712654</v>
       </c>
       <c r="J12" t="n">
-        <v>1.501724232653416</v>
+        <v>1.483476417347141</v>
       </c>
       <c r="K12" t="n">
-        <v>1.037277392918256</v>
+        <v>1.69953938613396</v>
       </c>
       <c r="L12" t="n">
-        <v>2.023755194071722</v>
+        <v>2.784299128821108</v>
       </c>
       <c r="M12" t="n">
-        <v>2.073316456371218</v>
+        <v>2.81683859258197</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6360959538072165</v>
+        <v>0.3215227717134997</v>
       </c>
       <c r="O12" t="n">
-        <v>1.469324043636322</v>
+        <v>0.883471072649426</v>
       </c>
     </row>
     <row r="13">
@@ -1116,45 +1116,43 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-36.47051115076395</v>
+        <v>15.20591596892681</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5465606159740753</v>
+        <v>2.978344164103892</v>
       </c>
       <c r="H13" t="n">
-        <v>1.266521321561718</v>
+        <v>0.6457117075203092</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4279317531266142</v>
+        <v>2.503336857601601</v>
       </c>
       <c r="J13" t="n">
-        <v>1.393087664981068</v>
+        <v>1.273852023076138</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8763478002567635</v>
+        <v>1.77027360889029</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2418767357492689</v>
+        <v>1.444362435027515</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2452206167188586</v>
+        <v>1.333398810855114</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9481689093798557</v>
+        <v>0.7335392696998366</v>
       </c>
       <c r="O13" t="n">
-        <v>1.628898097685572</v>
+        <v>0.9993623390902834</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
+      <c r="A14" t="n">
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ARIMA(1,1,0)</t>
+          <t>ARIMA(0,1,1)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1170,38 +1168,40 @@
           <t>Sí</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-9.513637903215555</v>
+      </c>
       <c r="G14" t="n">
-        <v>0.6990390572046671</v>
+        <v>0.6488196006494245</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7837920490082247</v>
+        <v>1.089261478257023</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6004338430680004</v>
+        <v>0.6131262800779619</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8038795218921356</v>
+        <v>0.4168852576480732</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9258753070845299</v>
+        <v>0.6674452663128213</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8188963457513362</v>
+        <v>1.077271641814574</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8653948132820105</v>
+        <v>1.097275822922888</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6372776565217405</v>
+        <v>0.9610993073735892</v>
       </c>
       <c r="O14" t="n">
-        <v>0.776585194473542</v>
+        <v>0.6547963224213007</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1222,39 +1222,39 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-8.577983846225132</v>
+        <v>-10.33987893437161</v>
       </c>
       <c r="G15" t="n">
-        <v>0.464330801878983</v>
+        <v>0.3743867891158886</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2214240473830628</v>
+        <v>0.7054238774208559</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6734740805000593</v>
+        <v>0.435059851598284</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5269568425250913</v>
+        <v>0.3019387900914517</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9485654599610009</v>
+        <v>0.698192440122445</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4402003124989226</v>
+        <v>0.3139419184700867</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4130049096912199</v>
+        <v>0.2950845679269248</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5112063874684846</v>
+        <v>0.7109241976272364</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4141993893599947</v>
+        <v>0.2858675402033988</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1275,39 +1275,39 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-7.953460282463475</v>
+        <v>-9.678583996826713</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2424624878750143</v>
+        <v>0.5565377310944708</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3362002135398543</v>
+        <v>0.2714153669911938</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3982400594612699</v>
+        <v>0.4808906390437894</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2723952137258694</v>
+        <v>0.567665897160509</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9176510107563256</v>
+        <v>0.8695332377537439</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3122187316044888</v>
+        <v>0.7898101077822367</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2412976708619739</v>
+        <v>0.8366366700975153</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6387335804051333</v>
+        <v>0.3617304689521427</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2738783793987971</v>
+        <v>0.4065501644871538</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1328,39 +1328,39 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-6.735966954492438</v>
+        <v>-9.16664909727341</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5403272227240921</v>
+        <v>0.4396522494652252</v>
       </c>
       <c r="H17" t="n">
-        <v>1.242811020132268</v>
+        <v>0.5768381365016904</v>
       </c>
       <c r="I17" t="n">
-        <v>0.702919366478332</v>
+        <v>0.3846693547938943</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6814700209404201</v>
+        <v>0.2405978035917656</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9606656822706041</v>
+        <v>0.8528617354534537</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4938227054141424</v>
+        <v>0.4419844818798694</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4214740451253357</v>
+        <v>0.4850169099977822</v>
       </c>
       <c r="N17" t="n">
-        <v>1.003977222202707</v>
+        <v>0.3599017664802</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6042045290447885</v>
+        <v>0.2170215528462169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1381,39 +1381,39 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-6.816096710678536</v>
+        <v>-9.54525269354251</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2586589429493407</v>
+        <v>0.1665222890806236</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4912299072715397</v>
+        <v>0.5067100860836824</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2712477642569754</v>
+        <v>0.3009217829586796</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3180254551170564</v>
+        <v>0.2742743976971024</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8818502073664651</v>
+        <v>0.7512843782426465</v>
       </c>
       <c r="L18" t="n">
-        <v>0.255791357029812</v>
+        <v>0.4602198339074136</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2477221236877731</v>
+        <v>0.4230423861936247</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4432917300055158</v>
+        <v>0.4933112894450705</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2901562176020357</v>
+        <v>0.2213688246698549</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1434,39 +1434,39 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-7.479826790520777</v>
+        <v>-10.60866950796466</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6834653672670955</v>
+        <v>0.5642400783898825</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2428532162544134</v>
+        <v>0.5460579660217011</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4378780558153358</v>
+        <v>0.5874617251378247</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3333594114806709</v>
+        <v>0.4961826349572509</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8522608028861078</v>
+        <v>0.6815939228812945</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8620982394503988</v>
+        <v>0.5440641750818667</v>
       </c>
       <c r="M19" t="n">
-        <v>1.117860794573502</v>
+        <v>0.5304252684885731</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3332821187883719</v>
+        <v>0.887033125236464</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2685607841849365</v>
+        <v>0.4775813540982773</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1487,39 +1487,39 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-6.982374298030956</v>
+        <v>-11.00898165851836</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2053940248463194</v>
+        <v>0.169393046507807</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5424279939174519</v>
+        <v>0.2517686375108656</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3548702078298598</v>
+        <v>0.3044428559933141</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3165125548360334</v>
+        <v>0.2829422674128123</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9123130370404908</v>
+        <v>0.7494488423573549</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4885007410184014</v>
+        <v>0.2392530768993275</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4146709555961834</v>
+        <v>0.2116182163766667</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1690476201616253</v>
+        <v>0.3794120136946363</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5006044903561171</v>
+        <v>0.226425269601898</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1540,39 +1540,39 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-7.390696074659365</v>
+        <v>-11.10656357758912</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4552947531862123</v>
+        <v>0.1605874199743367</v>
       </c>
       <c r="H21" t="n">
-        <v>1.398762350900443</v>
+        <v>0.4001963812143877</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3379783483240685</v>
+        <v>0.2722306886265576</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4952100558315338</v>
+        <v>0.2494539573422648</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8650080825862816</v>
+        <v>0.7843709849442577</v>
       </c>
       <c r="L21" t="n">
-        <v>0.327311260845851</v>
+        <v>0.3165423965758565</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3425240271488538</v>
+        <v>0.3434605586210344</v>
       </c>
       <c r="N21" t="n">
-        <v>0.423547643270497</v>
+        <v>0.4566835856787694</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6137329591752348</v>
+        <v>0.2426217376977222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1593,39 +1593,39 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-7.815315846174326</v>
+        <v>-10.9181669550724</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4684312397348981</v>
+        <v>0.2421650216064574</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3683732166954028</v>
+        <v>0.2810857240361497</v>
       </c>
       <c r="I22" t="n">
-        <v>0.318899390277244</v>
+        <v>0.3104428405843178</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2367627454748207</v>
+        <v>0.2731616661424104</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8638635117584943</v>
+        <v>0.8176413141849549</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4999710860647956</v>
+        <v>0.2567889596494128</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6134677229153078</v>
+        <v>0.231757852118833</v>
       </c>
       <c r="N22" t="n">
-        <v>0.4617194610684232</v>
+        <v>0.4479458798506923</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2467782602037984</v>
+        <v>0.3164251447333257</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1646,39 +1646,39 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-6.254283998949274</v>
+        <v>-10.72618923023164</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7961594671527117</v>
+        <v>0.2438667393530661</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5840805578145689</v>
+        <v>0.4536502906197868</v>
       </c>
       <c r="I23" t="n">
-        <v>1.006194225742424</v>
+        <v>0.305300893455217</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9406359912535109</v>
+        <v>0.2283338629606355</v>
       </c>
       <c r="K23" t="n">
-        <v>1.015548184438034</v>
+        <v>0.8185744827693582</v>
       </c>
       <c r="L23" t="n">
-        <v>1.357964850859139</v>
+        <v>0.3035615445279609</v>
       </c>
       <c r="M23" t="n">
-        <v>1.367953230778813</v>
+        <v>0.3153657576539202</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5679014729478123</v>
+        <v>0.4361438816723869</v>
       </c>
       <c r="O23" t="n">
-        <v>0.9865512187314606</v>
+        <v>0.2270436018540302</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1699,39 +1699,39 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-5.227584097133239</v>
+        <v>-12.2001614671585</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4343242087542029</v>
+        <v>0.9520536461327184</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2727409943131442</v>
+        <v>0.5738253109538206</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5915317973733338</v>
+        <v>0.8649696639320373</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2946383409679815</v>
+        <v>0.7904148318219875</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9434296974949032</v>
+        <v>0.671812289735029</v>
       </c>
       <c r="L24" t="n">
-        <v>0.571980739261666</v>
+        <v>0.9882397675023082</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5472577255320604</v>
+        <v>1.050373358603461</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2456574633540804</v>
+        <v>0.9893607438832255</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3650549920766163</v>
+        <v>1.009181522483439</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1752,140 +1752,34 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-5.633680757127064</v>
+        <v>-12.44897834542954</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4526725963648827</v>
+        <v>0.1508391512802907</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2462937040530806</v>
+        <v>0.2511291232124205</v>
       </c>
       <c r="I25" t="n">
-        <v>0.344981273427538</v>
+        <v>0.2711393325062955</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3141801107738782</v>
+        <v>0.4437056036561959</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8645983385019425</v>
+        <v>0.7673996669969362</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6852337999507102</v>
+        <v>0.2346016176168173</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8467040966524592</v>
+        <v>0.1730469013557179</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2272741696788704</v>
+        <v>0.4943228036595011</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2406223960291969</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>12</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ARIMA(0,1,1)</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>-4.786015636256479</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.3374194500907273</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.5872540462165534</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.4713877125496815</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.676749786506771</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.9315383047997527</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.4937072885515946</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.4282460349483329</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.7456805984299136</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.6664838387679016</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ARIMA(0,1,1)</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="n">
-        <v>0.4449117135687066</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.5445376057076485</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.4924668568363436</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.4505747107861365</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.9131076933217002</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.5657334260458269</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.5835152781259847</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.4809432889817862</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.4559022879109065</v>
+        <v>0.362627011640877</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/Simulaciones/lineal_NO_estacionario_diferenciado/resultados_2_ESCENARIOS_ARIMA_CON_DIFF.xlsx
+++ b/codigo_final_organizado/Simulaciones/lineal_NO_estacionario_diferenciado/resultados_2_ESCENARIOS_ARIMA_CON_DIFF.xlsx
@@ -536,19 +536,19 @@
         <v>25.77679270376048</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2625177263493114</v>
+        <v>0.2648423062635428</v>
       </c>
       <c r="H2" t="n">
         <v>0.2944259860793316</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3899669040155191</v>
+        <v>0.3999845054128732</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2108556712049222</v>
+        <v>0.1667020416781071</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9885378486184548</v>
+        <v>0.9893093490273974</v>
       </c>
       <c r="L2" t="n">
         <v>0.7735204568118509</v>
@@ -560,7 +560,7 @@
         <v>0.3023253714288707</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2143114962025439</v>
+        <v>0.2314577481323485</v>
       </c>
     </row>
     <row r="3">
@@ -589,31 +589,31 @@
         <v>27.31157121970884</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8137048345559498</v>
+        <v>0.7367725734787592</v>
       </c>
       <c r="H3" t="n">
         <v>0.5362415689082549</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8862691152952242</v>
+        <v>0.8067698848656968</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5374089669908289</v>
+        <v>0.7013610185265239</v>
       </c>
       <c r="K3" t="n">
-        <v>1.079531804581382</v>
+        <v>1.079606318662967</v>
       </c>
       <c r="L3" t="n">
         <v>0.6059360466113632</v>
       </c>
       <c r="M3" t="n">
-        <v>0.49338771618396</v>
+        <v>1.535090727082321</v>
       </c>
       <c r="N3" t="n">
         <v>0.685461050654633</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6933953219620631</v>
+        <v>0.5874117869445946</v>
       </c>
     </row>
     <row r="4">
@@ -642,31 +642,31 @@
         <v>28.12308079889016</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3225790553745564</v>
+        <v>0.3172829080795564</v>
       </c>
       <c r="H4" t="n">
         <v>0.3644925371099176</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4629774148368815</v>
+        <v>0.4556921325965645</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4176243868851081</v>
+        <v>0.2329149865727795</v>
       </c>
       <c r="K4" t="n">
-        <v>1.003046797508251</v>
+        <v>1.006599966677753</v>
       </c>
       <c r="L4" t="n">
         <v>0.2981175496021654</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2626959257833017</v>
+        <v>0.8296464212590471</v>
       </c>
       <c r="N4" t="n">
         <v>0.5860808137790211</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2322457757711952</v>
+        <v>0.3011757366550303</v>
       </c>
     </row>
     <row r="5">
@@ -695,31 +695,31 @@
         <v>26.92358613791478</v>
       </c>
       <c r="G5" t="n">
-        <v>1.01158664024215</v>
+        <v>1.047167857446734</v>
       </c>
       <c r="H5" t="n">
         <v>1.13602931111974</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8508936460387351</v>
+        <v>0.8542726440854786</v>
       </c>
       <c r="J5" t="n">
-        <v>1.60396320850908</v>
+        <v>1.486231553615516</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8500459840964045</v>
+        <v>0.8598011502695897</v>
       </c>
       <c r="L5" t="n">
         <v>1.890531205045505</v>
       </c>
       <c r="M5" t="n">
-        <v>2.066331480047464</v>
+        <v>0.3991767594233399</v>
       </c>
       <c r="N5" t="n">
         <v>1.49183613310364</v>
       </c>
       <c r="O5" t="n">
-        <v>1.472402146149633</v>
+        <v>1.349922214039842</v>
       </c>
     </row>
     <row r="6">
@@ -748,31 +748,31 @@
         <v>25.79666630224374</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9525574174328825</v>
+        <v>0.990122340778822</v>
       </c>
       <c r="H6" t="n">
         <v>2.567193971818427</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7541983563640512</v>
+        <v>0.7849234254131709</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3931727160679734</v>
+        <v>0.491954426243003</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8406811063688824</v>
+        <v>0.8486782587928934</v>
       </c>
       <c r="L6" t="n">
         <v>1.248952593035678</v>
       </c>
       <c r="M6" t="n">
-        <v>1.393675488116779</v>
+        <v>0.3703395202782027</v>
       </c>
       <c r="N6" t="n">
         <v>1.875894935729296</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2067848932960737</v>
+        <v>0.2988408563168703</v>
       </c>
     </row>
     <row r="7">
@@ -801,31 +801,31 @@
         <v>25.43791639263172</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4020277595577636</v>
+        <v>0.4488583611760173</v>
       </c>
       <c r="H7" t="n">
         <v>0.541444406771042</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3569533342188804</v>
+        <v>0.3576788438215815</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2703098523538076</v>
+        <v>0.2735505756474028</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8906589738033739</v>
+        <v>0.8957167478771801</v>
       </c>
       <c r="L7" t="n">
         <v>0.2512816967665725</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2751645067633461</v>
+        <v>0.2605979402896592</v>
       </c>
       <c r="N7" t="n">
         <v>0.1745740303991614</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3990800244342653</v>
+        <v>0.3672874443582904</v>
       </c>
     </row>
     <row r="8">
@@ -854,31 +854,31 @@
         <v>24.40291983537906</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8737193329234112</v>
+        <v>0.9062454332425819</v>
       </c>
       <c r="H8" t="n">
         <v>0.8440177444712131</v>
       </c>
       <c r="I8" t="n">
-        <v>0.72067952927955</v>
+        <v>0.7362623963781584</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3965972396936209</v>
+        <v>0.3023720181096924</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8347535226241747</v>
+        <v>0.8418244561768575</v>
       </c>
       <c r="L8" t="n">
         <v>0.2285845609792513</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2644855082661787</v>
+        <v>0.3392403909474527</v>
       </c>
       <c r="N8" t="n">
         <v>0.7817946431952526</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3520300934399639</v>
+        <v>0.3484605790162927</v>
       </c>
     </row>
     <row r="9">
@@ -907,31 +907,31 @@
         <v>22.96712407901793</v>
       </c>
       <c r="G9" t="n">
-        <v>1.221302280282329</v>
+        <v>1.237113586789377</v>
       </c>
       <c r="H9" t="n">
         <v>0.1580283621872119</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9413212019313514</v>
+        <v>0.9549235379643154</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4114480451613493</v>
+        <v>0.363242646818582</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8287666550490203</v>
+        <v>0.8380172508133381</v>
       </c>
       <c r="L9" t="n">
         <v>0.6549120671590788</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6921152441153984</v>
+        <v>0.5358669738276819</v>
       </c>
       <c r="N9" t="n">
         <v>0.3476930299897104</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4466201660287621</v>
+        <v>0.4564606114509621</v>
       </c>
     </row>
     <row r="10">
@@ -960,31 +960,31 @@
         <v>23.47008885455995</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2257492194867766</v>
+        <v>0.2272709963872031</v>
       </c>
       <c r="H10" t="n">
         <v>2.099676232984059</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3480433069878891</v>
+        <v>0.3505290519841819</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9481074596915887</v>
+        <v>1.105161635716102</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9697381548787531</v>
+        <v>0.9744048986904357</v>
       </c>
       <c r="L10" t="n">
         <v>0.7261019011129686</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6888596560266942</v>
+        <v>0.5866892550215309</v>
       </c>
       <c r="N10" t="n">
         <v>1.612410627313354</v>
       </c>
       <c r="O10" t="n">
-        <v>1.146124265211258</v>
+        <v>0.8871267945290771</v>
       </c>
     </row>
     <row r="11">
@@ -1013,31 +1013,31 @@
         <v>21.48748792140033</v>
       </c>
       <c r="G11" t="n">
-        <v>1.744986768244521</v>
+        <v>1.740248933809657</v>
       </c>
       <c r="H11" t="n">
         <v>1.996854802546846</v>
       </c>
       <c r="I11" t="n">
-        <v>1.484429351788485</v>
+        <v>1.472665161823985</v>
       </c>
       <c r="J11" t="n">
-        <v>1.585849887824712</v>
+        <v>1.470261269805833</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9176385355908128</v>
+        <v>0.9237447867456334</v>
       </c>
       <c r="L11" t="n">
         <v>0.5794622118080914</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5451393203203033</v>
+        <v>1.006566124253472</v>
       </c>
       <c r="N11" t="n">
         <v>1.320844807581292</v>
       </c>
       <c r="O11" t="n">
-        <v>1.566322376313704</v>
+        <v>1.636274910450251</v>
       </c>
     </row>
     <row r="12">
@@ -1066,31 +1066,31 @@
         <v>18.42521173482216</v>
       </c>
       <c r="G12" t="n">
-        <v>2.824873719333177</v>
+        <v>2.808236504563006</v>
       </c>
       <c r="H12" t="n">
         <v>0.3200020371851184</v>
       </c>
       <c r="I12" t="n">
-        <v>2.421898148712654</v>
+        <v>2.43911637503443</v>
       </c>
       <c r="J12" t="n">
-        <v>1.483476417347141</v>
+        <v>1.469662336551587</v>
       </c>
       <c r="K12" t="n">
-        <v>1.69953938613396</v>
+        <v>1.707287010441392</v>
       </c>
       <c r="L12" t="n">
         <v>2.784299128821108</v>
       </c>
       <c r="M12" t="n">
-        <v>2.81683859258197</v>
+        <v>2.066582927066592</v>
       </c>
       <c r="N12" t="n">
         <v>0.3215227717134997</v>
       </c>
       <c r="O12" t="n">
-        <v>0.883471072649426</v>
+        <v>1.257223957844785</v>
       </c>
     </row>
     <row r="13">
@@ -1119,31 +1119,31 @@
         <v>15.20591596892681</v>
       </c>
       <c r="G13" t="n">
-        <v>2.978344164103892</v>
+        <v>2.96375479385902</v>
       </c>
       <c r="H13" t="n">
         <v>0.6457117075203092</v>
       </c>
       <c r="I13" t="n">
-        <v>2.503336857601601</v>
+        <v>2.608351823819266</v>
       </c>
       <c r="J13" t="n">
-        <v>1.273852023076138</v>
+        <v>1.036435725319554</v>
       </c>
       <c r="K13" t="n">
-        <v>1.77027360889029</v>
+        <v>1.780065299615569</v>
       </c>
       <c r="L13" t="n">
         <v>1.444362435027515</v>
       </c>
       <c r="M13" t="n">
-        <v>1.333398810855114</v>
+        <v>2.223288467225127</v>
       </c>
       <c r="N13" t="n">
         <v>0.7335392696998366</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9993623390902834</v>
+        <v>0.7801894478578744</v>
       </c>
     </row>
     <row r="14">
@@ -1172,7 +1172,7 @@
         <v>-9.513637903215555</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6488196006494245</v>
+        <v>0.5293721803614317</v>
       </c>
       <c r="H14" t="n">
         <v>1.089261478257023</v>
@@ -1181,10 +1181,10 @@
         <v>0.6131262800779619</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4168852576480732</v>
+        <v>0.3780563917137483</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6674452663128213</v>
+        <v>0.6705288111468155</v>
       </c>
       <c r="L14" t="n">
         <v>1.077271641814574</v>
@@ -1225,7 +1225,7 @@
         <v>-10.33987893437161</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3743867891158886</v>
+        <v>0.3214587559052511</v>
       </c>
       <c r="H15" t="n">
         <v>0.7054238774208559</v>
@@ -1234,16 +1234,16 @@
         <v>0.435059851598284</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3019387900914517</v>
+        <v>0.2620851585266541</v>
       </c>
       <c r="K15" t="n">
-        <v>0.698192440122445</v>
+        <v>0.7011247130273096</v>
       </c>
       <c r="L15" t="n">
         <v>0.3139419184700867</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2950845679269248</v>
+        <v>0.790585644941196</v>
       </c>
       <c r="N15" t="n">
         <v>0.7109241976272364</v>
@@ -1278,7 +1278,7 @@
         <v>-9.678583996826713</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5565377310944708</v>
+        <v>0.6195532464453075</v>
       </c>
       <c r="H16" t="n">
         <v>0.2714153669911938</v>
@@ -1287,16 +1287,16 @@
         <v>0.4808906390437894</v>
       </c>
       <c r="J16" t="n">
-        <v>0.567665897160509</v>
+        <v>0.5750369945155545</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8695332377537439</v>
+        <v>0.8723360262831423</v>
       </c>
       <c r="L16" t="n">
         <v>0.7898101077822367</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8366366700975153</v>
+        <v>0.2882802641105014</v>
       </c>
       <c r="N16" t="n">
         <v>0.3617304689521427</v>
@@ -1331,7 +1331,7 @@
         <v>-9.16664909727341</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4396522494652252</v>
+        <v>0.5044473022233332</v>
       </c>
       <c r="H17" t="n">
         <v>0.5768381365016904</v>
@@ -1340,16 +1340,16 @@
         <v>0.3846693547938943</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2405978035917656</v>
+        <v>0.2202018135256127</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8528617354534537</v>
+        <v>0.8551202753362673</v>
       </c>
       <c r="L17" t="n">
         <v>0.4419844818798694</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4850169099977822</v>
+        <v>0.2677362010018021</v>
       </c>
       <c r="N17" t="n">
         <v>0.3599017664802</v>
@@ -1384,25 +1384,25 @@
         <v>-9.54525269354251</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1665222890806236</v>
+        <v>0.1769659046176615</v>
       </c>
       <c r="H18" t="n">
         <v>0.5067100860836824</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3009217829586796</v>
+        <v>0.2847458844189225</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2742743976971024</v>
+        <v>0.231952375889422</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7512843782426465</v>
+        <v>0.75329983683942</v>
       </c>
       <c r="L18" t="n">
         <v>0.4602198339074136</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4230423861936247</v>
+        <v>0.456913988622148</v>
       </c>
       <c r="N18" t="n">
         <v>0.4933112894450705</v>
@@ -1437,25 +1437,25 @@
         <v>-10.60866950796466</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5642400783898825</v>
+        <v>0.4603100215000683</v>
       </c>
       <c r="H19" t="n">
         <v>0.5460579660217011</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5874617251378247</v>
+        <v>0.5425801482383638</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4961826349572509</v>
+        <v>0.4295909304226662</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6815939228812945</v>
+        <v>0.6833154897163575</v>
       </c>
       <c r="L19" t="n">
         <v>0.5440641750818667</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5304252684885731</v>
+        <v>1.00899767024709</v>
       </c>
       <c r="N19" t="n">
         <v>0.887033125236464</v>
@@ -1490,25 +1490,25 @@
         <v>-11.00898165851836</v>
       </c>
       <c r="G20" t="n">
-        <v>0.169393046507807</v>
+        <v>0.1782568086682427</v>
       </c>
       <c r="H20" t="n">
         <v>0.2517686375108656</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3044428559933141</v>
+        <v>0.2827058914318142</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2829422674128123</v>
+        <v>0.2703431646217884</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7494488423573549</v>
+        <v>0.7512184662674252</v>
       </c>
       <c r="L20" t="n">
         <v>0.2392530768993275</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2116182163766667</v>
+        <v>0.4701996238443251</v>
       </c>
       <c r="N20" t="n">
         <v>0.3794120136946363</v>
@@ -1543,25 +1543,25 @@
         <v>-11.10656357758912</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1605874199743367</v>
+        <v>0.1957384692117254</v>
       </c>
       <c r="H21" t="n">
         <v>0.4001963812143877</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2722306886265576</v>
+        <v>0.2931407093753178</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2494539573422648</v>
+        <v>0.2233767533978894</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7843709849442577</v>
+        <v>0.7861187593041835</v>
       </c>
       <c r="L21" t="n">
         <v>0.3165423965758565</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3434605586210344</v>
+        <v>0.3320203296529319</v>
       </c>
       <c r="N21" t="n">
         <v>0.4566835856787694</v>
@@ -1596,25 +1596,25 @@
         <v>-10.9181669550724</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2421650216064574</v>
+        <v>0.2995617203586911</v>
       </c>
       <c r="H22" t="n">
         <v>0.2810857240361497</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3104428405843178</v>
+        <v>0.3183782736431794</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2731616661424104</v>
+        <v>0.3338913416917921</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8176413141849549</v>
+        <v>0.8194224785569194</v>
       </c>
       <c r="L22" t="n">
         <v>0.2567889596494128</v>
       </c>
       <c r="M22" t="n">
-        <v>0.231757852118833</v>
+        <v>0.2670639643961904</v>
       </c>
       <c r="N22" t="n">
         <v>0.4479458798506923</v>
@@ -1649,25 +1649,25 @@
         <v>-10.72618923023164</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2438667393530661</v>
+        <v>0.3018427706456829</v>
       </c>
       <c r="H23" t="n">
         <v>0.4536502906197868</v>
       </c>
       <c r="I23" t="n">
-        <v>0.305300893455217</v>
+        <v>0.3019466076076006</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2283338629606355</v>
+        <v>0.2303339987425469</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8185744827693582</v>
+        <v>0.8203472329602192</v>
       </c>
       <c r="L23" t="n">
         <v>0.3035615445279609</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3153657576539202</v>
+        <v>0.2666843675498428</v>
       </c>
       <c r="N23" t="n">
         <v>0.4361438816723869</v>
@@ -1702,25 +1702,25 @@
         <v>-12.2001614671585</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9520536461327184</v>
+        <v>0.7859439470026772</v>
       </c>
       <c r="H24" t="n">
         <v>0.5738253109538206</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8649696639320373</v>
+        <v>0.8647302407095083</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7904148318219875</v>
+        <v>0.8053580720500954</v>
       </c>
       <c r="K24" t="n">
-        <v>0.671812289735029</v>
+        <v>0.6725266679115</v>
       </c>
       <c r="L24" t="n">
         <v>0.9882397675023082</v>
       </c>
       <c r="M24" t="n">
-        <v>1.050373358603461</v>
+        <v>1.406119705266911</v>
       </c>
       <c r="N24" t="n">
         <v>0.9893607438832255</v>
@@ -1755,25 +1755,25 @@
         <v>-12.44897834542954</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1508391512802907</v>
+        <v>0.1676900696445014</v>
       </c>
       <c r="H25" t="n">
         <v>0.2511291232124205</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2711393325062955</v>
+        <v>0.2781656602250006</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4437056036561959</v>
+        <v>0.4387373481867253</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7673996669969362</v>
+        <v>0.7693459925171294</v>
       </c>
       <c r="L25" t="n">
         <v>0.2346016176168173</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1730469013557179</v>
+        <v>0.3896174153040006</v>
       </c>
       <c r="N25" t="n">
         <v>0.4943228036595011</v>

--- a/codigo_final_organizado/Simulaciones/lineal_NO_estacionario_diferenciado/resultados_2_ESCENARIOS_ARIMA_CON_DIFF.xlsx
+++ b/codigo_final_organizado/Simulaciones/lineal_NO_estacionario_diferenciado/resultados_2_ESCENARIOS_ARIMA_CON_DIFF.xlsx
@@ -548,13 +548,13 @@
         <v>0.1667020416781071</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9893093490273974</v>
+        <v>0.9707342958159613</v>
       </c>
       <c r="L2" t="n">
         <v>0.7735204568118509</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7060159735653135</v>
+        <v>0.7487939190589203</v>
       </c>
       <c r="N2" t="n">
         <v>0.3023253714288707</v>
@@ -601,13 +601,13 @@
         <v>0.7013610185265239</v>
       </c>
       <c r="K3" t="n">
-        <v>1.079606318662967</v>
+        <v>1.062578975339774</v>
       </c>
       <c r="L3" t="n">
         <v>0.6059360466113632</v>
       </c>
       <c r="M3" t="n">
-        <v>1.535090727082321</v>
+        <v>1.533598223039508</v>
       </c>
       <c r="N3" t="n">
         <v>0.685461050654633</v>
@@ -654,13 +654,13 @@
         <v>0.2329149865727795</v>
       </c>
       <c r="K4" t="n">
-        <v>1.006599966677753</v>
+        <v>0.986882324479887</v>
       </c>
       <c r="L4" t="n">
         <v>0.2981175496021654</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8296464212590471</v>
+        <v>0.8654654022157977</v>
       </c>
       <c r="N4" t="n">
         <v>0.5860808137790211</v>
@@ -707,13 +707,13 @@
         <v>1.486231553615516</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8598011502695897</v>
+        <v>0.8376521761300837</v>
       </c>
       <c r="L5" t="n">
         <v>1.890531205045505</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3991767594233399</v>
+        <v>0.3809677172686039</v>
       </c>
       <c r="N5" t="n">
         <v>1.49183613310364</v>
@@ -760,13 +760,13 @@
         <v>0.491954426243003</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8486782587928934</v>
+        <v>0.8261909064421122</v>
       </c>
       <c r="L6" t="n">
         <v>1.248952593035678</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3703395202782027</v>
+        <v>0.347172064287868</v>
       </c>
       <c r="N6" t="n">
         <v>1.875894935729296</v>
@@ -813,13 +813,13 @@
         <v>0.2735505756474028</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8957167478771801</v>
+        <v>0.8755947339351307</v>
       </c>
       <c r="L7" t="n">
         <v>0.2512816967665725</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2605979402896592</v>
+        <v>0.2486108681863299</v>
       </c>
       <c r="N7" t="n">
         <v>0.1745740303991614</v>
@@ -866,13 +866,13 @@
         <v>0.3023720181096924</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8418244561768575</v>
+        <v>0.8184331976893511</v>
       </c>
       <c r="L8" t="n">
         <v>0.2285845609792513</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3392403909474527</v>
+        <v>0.310793680199165</v>
       </c>
       <c r="N8" t="n">
         <v>0.7817946431952526</v>
@@ -919,13 +919,13 @@
         <v>0.363242646818582</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8380172508133381</v>
+        <v>0.8096155213362113</v>
       </c>
       <c r="L9" t="n">
         <v>0.6549120671590788</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5358669738276819</v>
+        <v>0.5222173379929488</v>
       </c>
       <c r="N9" t="n">
         <v>0.3476930299897104</v>
@@ -972,13 +972,13 @@
         <v>1.105161635716102</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9744048986904357</v>
+        <v>0.9536874145157566</v>
       </c>
       <c r="L10" t="n">
         <v>0.7261019011129686</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5866892550215309</v>
+        <v>0.6356227766165204</v>
       </c>
       <c r="N10" t="n">
         <v>1.612410627313354</v>
@@ -1025,13 +1025,13 @@
         <v>1.470261269805833</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9237447867456334</v>
+        <v>0.8895646083774975</v>
       </c>
       <c r="L11" t="n">
         <v>0.5794622118080914</v>
       </c>
       <c r="M11" t="n">
-        <v>1.006566124253472</v>
+        <v>0.9701291836553864</v>
       </c>
       <c r="N11" t="n">
         <v>1.320844807581292</v>
@@ -1078,13 +1078,13 @@
         <v>1.469662336551587</v>
       </c>
       <c r="K12" t="n">
-        <v>1.707287010441392</v>
+        <v>1.667010023685576</v>
       </c>
       <c r="L12" t="n">
         <v>2.784299128821108</v>
       </c>
       <c r="M12" t="n">
-        <v>2.066582927066592</v>
+        <v>2.011956946852854</v>
       </c>
       <c r="N12" t="n">
         <v>0.3215227717134997</v>
@@ -1131,13 +1131,13 @@
         <v>1.036435725319554</v>
       </c>
       <c r="K13" t="n">
-        <v>1.780065299615569</v>
+        <v>1.728677940482863</v>
       </c>
       <c r="L13" t="n">
         <v>1.444362435027515</v>
       </c>
       <c r="M13" t="n">
-        <v>2.223288467225127</v>
+        <v>2.168348447852754</v>
       </c>
       <c r="N13" t="n">
         <v>0.7335392696998366</v>
@@ -1184,13 +1184,13 @@
         <v>0.3780563917137483</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6705288111468155</v>
+        <v>0.6746239868361463</v>
       </c>
       <c r="L14" t="n">
         <v>1.077271641814574</v>
       </c>
       <c r="M14" t="n">
-        <v>1.097275822922888</v>
+        <v>1.12741897075481</v>
       </c>
       <c r="N14" t="n">
         <v>0.9610993073735892</v>
@@ -1237,13 +1237,13 @@
         <v>0.2620851585266541</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7011247130273096</v>
+        <v>0.7051420875476153</v>
       </c>
       <c r="L15" t="n">
         <v>0.3139419184700867</v>
       </c>
       <c r="M15" t="n">
-        <v>0.790585644941196</v>
+        <v>0.8325282053809629</v>
       </c>
       <c r="N15" t="n">
         <v>0.7109241976272364</v>
@@ -1290,13 +1290,13 @@
         <v>0.5750369945155545</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8723360262831423</v>
+        <v>0.8749036462406581</v>
       </c>
       <c r="L16" t="n">
         <v>0.7898101077822367</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2882802641105014</v>
+        <v>0.2680715488458485</v>
       </c>
       <c r="N16" t="n">
         <v>0.3617304689521427</v>
@@ -1343,13 +1343,13 @@
         <v>0.2202018135256127</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8551202753362673</v>
+        <v>0.8575316530958351</v>
       </c>
       <c r="L17" t="n">
         <v>0.4419844818798694</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2677362010018021</v>
+        <v>0.2570925706085071</v>
       </c>
       <c r="N17" t="n">
         <v>0.3599017664802</v>
@@ -1396,13 +1396,13 @@
         <v>0.231952375889422</v>
       </c>
       <c r="K18" t="n">
-        <v>0.75329983683942</v>
+        <v>0.7557113805039272</v>
       </c>
       <c r="L18" t="n">
         <v>0.4602198339074136</v>
       </c>
       <c r="M18" t="n">
-        <v>0.456913988622148</v>
+        <v>0.5109425604985418</v>
       </c>
       <c r="N18" t="n">
         <v>0.4933112894450705</v>
@@ -1449,13 +1449,13 @@
         <v>0.4295909304226662</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6833154897163575</v>
+        <v>0.687039292104314</v>
       </c>
       <c r="L19" t="n">
         <v>0.5440641750818667</v>
       </c>
       <c r="M19" t="n">
-        <v>1.00899767024709</v>
+        <v>1.040297365046833</v>
       </c>
       <c r="N19" t="n">
         <v>0.887033125236464</v>
@@ -1502,13 +1502,13 @@
         <v>0.2703431646217884</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7512184662674252</v>
+        <v>0.7547617139214612</v>
       </c>
       <c r="L20" t="n">
         <v>0.2392530768993275</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4701996238443251</v>
+        <v>0.5243679020379594</v>
       </c>
       <c r="N20" t="n">
         <v>0.3794120136946363</v>
@@ -1555,13 +1555,13 @@
         <v>0.2233767533978894</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7861187593041835</v>
+        <v>0.7897251794085817</v>
       </c>
       <c r="L21" t="n">
         <v>0.3165423965758565</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3320203296529319</v>
+        <v>0.3681164641425222</v>
       </c>
       <c r="N21" t="n">
         <v>0.4566835856787694</v>
@@ -1608,13 +1608,13 @@
         <v>0.3338913416917921</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8194224785569194</v>
+        <v>0.8229900583840124</v>
       </c>
       <c r="L22" t="n">
         <v>0.2567889596494128</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2670639643961904</v>
+        <v>0.2787876934302309</v>
       </c>
       <c r="N22" t="n">
         <v>0.4479458798506923</v>
@@ -1661,13 +1661,13 @@
         <v>0.2303339987425469</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8203472329602192</v>
+        <v>0.823643476365322</v>
       </c>
       <c r="L23" t="n">
         <v>0.3035615445279609</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2666843675498428</v>
+        <v>0.2780929595793681</v>
       </c>
       <c r="N23" t="n">
         <v>0.4361438816723869</v>
@@ -1714,13 +1714,13 @@
         <v>0.8053580720500954</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6725266679115</v>
+        <v>0.6777566771997651</v>
       </c>
       <c r="L24" t="n">
         <v>0.9882397675023082</v>
       </c>
       <c r="M24" t="n">
-        <v>1.406119705266911</v>
+        <v>1.427533598133154</v>
       </c>
       <c r="N24" t="n">
         <v>0.9893607438832255</v>
@@ -1767,13 +1767,13 @@
         <v>0.4387373481867253</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7693459925171294</v>
+        <v>0.7738422892098933</v>
       </c>
       <c r="L25" t="n">
         <v>0.2346016176168173</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3896174153040006</v>
+        <v>0.4364240034740199</v>
       </c>
       <c r="N25" t="n">
         <v>0.4943228036595011</v>

--- a/codigo_final_organizado/Simulaciones/lineal_NO_estacionario_diferenciado/resultados_2_ESCENARIOS_ARIMA_CON_DIFF.xlsx
+++ b/codigo_final_organizado/Simulaciones/lineal_NO_estacionario_diferenciado/resultados_2_ESCENARIOS_ARIMA_CON_DIFF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,72 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>proces_simulacion</t>
+          <t>Config</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Distribución</t>
+          <t>Dist</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Varianza error</t>
+          <t>Var</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Con_Diferenciacion</t>
+          <t>Diferenciacion</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Valor_Observado</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Sieve Bootstrap</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LSPM</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LSPMW</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>AREPD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MCPS</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AV-MCPS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Block Bootstrapping</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>DeepAR</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>EnCQR-LSTM</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
         </is>
       </c>
     </row>
@@ -533,34 +528,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>25.77679270376048</v>
+        <v>0.7126554218325974</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2648423062635428</v>
+        <v>0.5766501968783261</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2944259860793316</v>
+        <v>0.5782300834920086</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3999845054128732</v>
+        <v>0.5732512545132614</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1667020416781071</v>
+        <v>0.7057938330819035</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9707342958159613</v>
+        <v>0.6291257877327282</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7735204568118509</v>
+        <v>0.6716091734854959</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7487939190589203</v>
+        <v>0.5706096009454333</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3023253714288707</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.2314577481323485</v>
+        <v>1.112709936422421</v>
       </c>
     </row>
     <row r="3">
@@ -586,34 +578,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27.31157121970884</v>
+        <v>0.8743521934894305</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7367725734787592</v>
+        <v>0.5853046480970127</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5362415689082549</v>
+        <v>1.450983088048725</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8067698848656968</v>
+        <v>1.324120047199519</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7013610185265239</v>
+        <v>0.8908609375329961</v>
       </c>
       <c r="K3" t="n">
-        <v>1.062578975339774</v>
+        <v>0.6948233016659645</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6059360466113632</v>
+        <v>0.6705485377379639</v>
       </c>
       <c r="M3" t="n">
-        <v>1.533598223039508</v>
+        <v>0.588298910317083</v>
       </c>
       <c r="N3" t="n">
-        <v>0.685461050654633</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.5874117869445946</v>
+        <v>1.059723850405045</v>
       </c>
     </row>
     <row r="4">
@@ -639,34 +628,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>28.12308079889016</v>
+        <v>0.6324559014148136</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3172829080795564</v>
+        <v>0.5659788120944055</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3644925371099176</v>
+        <v>0.8031842229937988</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4556921325965645</v>
+        <v>0.8784972426811248</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2329149865727795</v>
+        <v>0.6264654340791795</v>
       </c>
       <c r="K4" t="n">
-        <v>0.986882324479887</v>
+        <v>0.5964491206202314</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2981175496021654</v>
+        <v>0.6043629777114435</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8654654022157977</v>
+        <v>0.5675513096607806</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5860808137790211</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.3011757366550303</v>
+        <v>1.022809791875938</v>
       </c>
     </row>
     <row r="5">
@@ -692,34 +678,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>26.92358613791478</v>
+        <v>0.5821791912275598</v>
       </c>
       <c r="G5" t="n">
-        <v>1.047167857446734</v>
+        <v>0.5715087696534736</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13602931111974</v>
+        <v>0.5597737657001477</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8542726440854786</v>
+        <v>0.7827440109487351</v>
       </c>
       <c r="J5" t="n">
-        <v>1.486231553615516</v>
+        <v>0.5857009941903075</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8376521761300837</v>
+        <v>0.5835795731836469</v>
       </c>
       <c r="L5" t="n">
-        <v>1.890531205045505</v>
+        <v>0.5908712941750363</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3809677172686039</v>
+        <v>0.5719890349637879</v>
       </c>
       <c r="N5" t="n">
-        <v>1.49183613310364</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.349922214039842</v>
+        <v>1.026842104055089</v>
       </c>
     </row>
     <row r="6">
@@ -745,34 +728,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>25.79666630224374</v>
+        <v>0.5892182285019585</v>
       </c>
       <c r="G6" t="n">
-        <v>0.990122340778822</v>
+        <v>0.5755720121442439</v>
       </c>
       <c r="H6" t="n">
-        <v>2.567193971818427</v>
+        <v>0.5746211706825725</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7849234254131709</v>
+        <v>0.6419531616488163</v>
       </c>
       <c r="J6" t="n">
-        <v>0.491954426243003</v>
+        <v>0.5774599606081097</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8261909064421122</v>
+        <v>0.7460416780380763</v>
       </c>
       <c r="L6" t="n">
-        <v>1.248952593035678</v>
+        <v>1.121806008118179</v>
       </c>
       <c r="M6" t="n">
-        <v>0.347172064287868</v>
+        <v>0.5901454652413448</v>
       </c>
       <c r="N6" t="n">
-        <v>1.875894935729296</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.2988408563168703</v>
+        <v>1.051972420586647</v>
       </c>
     </row>
     <row r="7">
@@ -798,34 +778,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>25.43791639263172</v>
+        <v>0.94935715741024</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4488583611760173</v>
+        <v>0.6495094704620347</v>
       </c>
       <c r="H7" t="n">
-        <v>0.541444406771042</v>
+        <v>1.037753543256499</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3576788438215815</v>
+        <v>0.7068784087372422</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2735505756474028</v>
+        <v>0.9907819881634593</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8755947339351307</v>
+        <v>1.346794202830598</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2512816967665725</v>
+        <v>1.278431621376492</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2486108681863299</v>
+        <v>0.6157641502706026</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1745740303991614</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.3672874443582904</v>
+        <v>1.202781442064724</v>
       </c>
     </row>
     <row r="8">
@@ -851,34 +828,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>24.40291983537906</v>
+        <v>0.6547457039131218</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9062454332425819</v>
+        <v>0.5628138726880555</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8440177444712131</v>
+        <v>1.527809472419873</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7362623963781584</v>
+        <v>0.9105795976079453</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3023720181096924</v>
+        <v>0.6365520151925801</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8184331976893511</v>
+        <v>0.581980425990367</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2285845609792513</v>
+        <v>0.5841508683063711</v>
       </c>
       <c r="M8" t="n">
-        <v>0.310793680199165</v>
+        <v>0.6118959602258814</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7817946431952526</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.3484605790162927</v>
+        <v>1.023943091723387</v>
       </c>
     </row>
     <row r="9">
@@ -904,34 +878,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>22.96712407901793</v>
+        <v>0.7200803105868399</v>
       </c>
       <c r="G9" t="n">
-        <v>1.237113586789377</v>
+        <v>0.6106961088801163</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1580283621872119</v>
+        <v>0.5558338967728091</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9549235379643154</v>
+        <v>1.092977909049395</v>
       </c>
       <c r="J9" t="n">
-        <v>0.363242646818582</v>
+        <v>0.7311125363119273</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8096155213362113</v>
+        <v>0.6289371268745428</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6549120671590788</v>
+        <v>0.6133816891042274</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5222173379929488</v>
+        <v>0.5548263216522614</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3476930299897104</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.4564606114509621</v>
+        <v>1.03022262859112</v>
       </c>
     </row>
     <row r="10">
@@ -957,34 +928,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>23.47008885455995</v>
+        <v>0.5991784682094614</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2272709963872031</v>
+        <v>0.6698427334953047</v>
       </c>
       <c r="H10" t="n">
-        <v>2.099676232984059</v>
+        <v>0.7236462043541498</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3505290519841819</v>
+        <v>0.7313423899471424</v>
       </c>
       <c r="J10" t="n">
-        <v>1.105161635716102</v>
+        <v>0.5903121829430349</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9536874145157566</v>
+        <v>0.6701350004923454</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7261019011129686</v>
+        <v>0.6802083088175948</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6356227766165204</v>
+        <v>0.623348094815062</v>
       </c>
       <c r="N10" t="n">
-        <v>1.612410627313354</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.8871267945290771</v>
+        <v>1.040907702819046</v>
       </c>
     </row>
     <row r="11">
@@ -1010,34 +978,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>21.48748792140033</v>
+        <v>0.990401152658249</v>
       </c>
       <c r="G11" t="n">
-        <v>1.740248933809657</v>
+        <v>0.6368517624697899</v>
       </c>
       <c r="H11" t="n">
-        <v>1.996854802546846</v>
+        <v>1.094303761026129</v>
       </c>
       <c r="I11" t="n">
-        <v>1.472665161823985</v>
+        <v>1.37980964515669</v>
       </c>
       <c r="J11" t="n">
-        <v>1.470261269805833</v>
+        <v>0.9186681073080789</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8895646083774975</v>
+        <v>0.7760188156263539</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5794622118080914</v>
+        <v>0.7133174782481635</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9701291836553864</v>
+        <v>0.5772614482446846</v>
       </c>
       <c r="N11" t="n">
-        <v>1.320844807581292</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.636274910450251</v>
+        <v>1.063541678902269</v>
       </c>
     </row>
     <row r="12">
@@ -1063,34 +1028,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>18.42521173482216</v>
+        <v>0.593806997479187</v>
       </c>
       <c r="G12" t="n">
-        <v>2.808236504563006</v>
+        <v>0.6176357044147445</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3200020371851184</v>
+        <v>1.209632797065104</v>
       </c>
       <c r="I12" t="n">
-        <v>2.43911637503443</v>
+        <v>0.6145172404111509</v>
       </c>
       <c r="J12" t="n">
-        <v>1.469662336551587</v>
+        <v>0.5999768077750933</v>
       </c>
       <c r="K12" t="n">
-        <v>1.667010023685576</v>
+        <v>0.6660943710127259</v>
       </c>
       <c r="L12" t="n">
-        <v>2.784299128821108</v>
+        <v>0.6240949649974504</v>
       </c>
       <c r="M12" t="n">
-        <v>2.011956946852854</v>
+        <v>0.6835724464738447</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3215227717134997</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.257223957844785</v>
+        <v>1.064609034910676</v>
       </c>
     </row>
     <row r="13">
@@ -1116,34 +1078,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>15.20591596892681</v>
+        <v>0.596173703582406</v>
       </c>
       <c r="G13" t="n">
-        <v>2.96375479385902</v>
+        <v>0.693760662127908</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6457117075203092</v>
+        <v>0.5494253916601892</v>
       </c>
       <c r="I13" t="n">
-        <v>2.608351823819266</v>
+        <v>0.5608265051388281</v>
       </c>
       <c r="J13" t="n">
-        <v>1.036435725319554</v>
+        <v>0.606197133342542</v>
       </c>
       <c r="K13" t="n">
-        <v>1.728677940482863</v>
+        <v>0.6433063020586817</v>
       </c>
       <c r="L13" t="n">
-        <v>1.444362435027515</v>
+        <v>0.563674167455626</v>
       </c>
       <c r="M13" t="n">
-        <v>2.168348447852754</v>
+        <v>0.5572324955172964</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7335392696998366</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.7801894478578744</v>
+        <v>1.079160430095435</v>
       </c>
     </row>
     <row r="14">
@@ -1169,34 +1128,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-9.513637903215555</v>
+        <v>0.5668329692763</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5293721803614317</v>
+        <v>0.5672070965782691</v>
       </c>
       <c r="H14" t="n">
-        <v>1.089261478257023</v>
+        <v>0.5699896497385639</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6131262800779619</v>
+        <v>0.57791362570924</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3780563917137483</v>
+        <v>0.607241273656135</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6746239868361463</v>
+        <v>0.749507124632801</v>
       </c>
       <c r="L14" t="n">
-        <v>1.077271641814574</v>
+        <v>0.63195843067441</v>
       </c>
       <c r="M14" t="n">
-        <v>1.12741897075481</v>
+        <v>0.5649703935124497</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9610993073735892</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.6547963224213007</v>
+        <v>0.8173496813035664</v>
       </c>
     </row>
     <row r="15">
@@ -1222,34 +1178,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-10.33987893437161</v>
+        <v>0.8011668737375255</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3214587559052511</v>
+        <v>0.5840019402228158</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7054238774208559</v>
+        <v>0.8202640749220081</v>
       </c>
       <c r="I15" t="n">
-        <v>0.435059851598284</v>
+        <v>0.9037813139279145</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2620851585266541</v>
+        <v>0.9599374597024464</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7051420875476153</v>
+        <v>0.8110787018069477</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3139419184700867</v>
+        <v>0.8691802955043432</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8325282053809629</v>
+        <v>0.5762861103346959</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7109241976272364</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.2858675402033988</v>
+        <v>0.8989764503656629</v>
       </c>
     </row>
     <row r="16">
@@ -1275,34 +1228,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-9.678583996826713</v>
+        <v>0.5570378508949394</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6195532464453075</v>
+        <v>0.5562894444892267</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2714153669911938</v>
+        <v>0.6630046900746841</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4808906390437894</v>
+        <v>0.5702952467489729</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5750369945155545</v>
+        <v>0.6032079110748835</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8749036462406581</v>
+        <v>0.7929706989746772</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7898101077822367</v>
+        <v>0.5615837950447297</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2680715488458485</v>
+        <v>0.5679141985543038</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3617304689521427</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.4065501644871538</v>
+        <v>0.8006498799270003</v>
       </c>
     </row>
     <row r="17">
@@ -1328,34 +1278,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-9.16664909727341</v>
+        <v>0.7250873468229858</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5044473022233332</v>
+        <v>0.5789101827732127</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5768381365016904</v>
+        <v>0.6621145821756242</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3846693547938943</v>
+        <v>0.7727081414334852</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2202018135256127</v>
+        <v>0.8127193066840899</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8575316530958351</v>
+        <v>0.7135535098756202</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4419844818798694</v>
+        <v>0.7449171295124811</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2570925706085071</v>
+        <v>0.582111051193741</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3599017664802</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.2170215528462169</v>
+        <v>0.8404046955762926</v>
       </c>
     </row>
     <row r="18">
@@ -1381,34 +1328,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-9.54525269354251</v>
+        <v>0.5762970435747076</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1769659046176615</v>
+        <v>0.557951144576361</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5067100860836824</v>
+        <v>0.7296249429994273</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2847458844189225</v>
+        <v>0.5605753575630967</v>
       </c>
       <c r="J18" t="n">
-        <v>0.231952375889422</v>
+        <v>0.5957741585919769</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7557113805039272</v>
+        <v>0.5991713305275943</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4602198339074136</v>
+        <v>0.5717296204259081</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5109425604985418</v>
+        <v>0.5610235942103873</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4933112894450705</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.2213688246698549</v>
+        <v>0.820027559234253</v>
       </c>
     </row>
     <row r="19">
@@ -1434,34 +1378,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-10.60866950796466</v>
+        <v>0.9963736355967837</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4603100215000683</v>
+        <v>0.588294285548589</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5460579660217011</v>
+        <v>0.8812946174388349</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5425801482383638</v>
+        <v>0.9555740919234618</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4295909304226662</v>
+        <v>1.083988254050418</v>
       </c>
       <c r="K19" t="n">
-        <v>0.687039292104314</v>
+        <v>0.8743090602556495</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5440641750818667</v>
+        <v>1.10847823222863</v>
       </c>
       <c r="M19" t="n">
-        <v>1.040297365046833</v>
+        <v>0.6274855290585313</v>
       </c>
       <c r="N19" t="n">
-        <v>0.887033125236464</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.4775813540982773</v>
+        <v>1.055027373882682</v>
       </c>
     </row>
     <row r="20">
@@ -1487,34 +1428,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-11.00898165851836</v>
+        <v>0.5727403929211751</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1782568086682427</v>
+        <v>0.5750724248912124</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2517686375108656</v>
+        <v>1.143535915599847</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2827058914318142</v>
+        <v>0.5995390386705647</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2703431646217884</v>
+        <v>0.6244534860332279</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7547617139214612</v>
+        <v>0.6393403100645219</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2392530768993275</v>
+        <v>0.6495013231615474</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5243679020379594</v>
+        <v>0.5933760959151286</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3794120136946363</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.226425269601898</v>
+        <v>0.8086248997392134</v>
       </c>
     </row>
     <row r="21">
@@ -1540,34 +1478,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-11.10656357758912</v>
+        <v>0.635254873444856</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1957384692117254</v>
+        <v>0.5747654680268093</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4001963812143877</v>
+        <v>0.6530831576429931</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2931407093753178</v>
+        <v>0.6108145954973647</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2233767533978894</v>
+        <v>0.6627571709779209</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7897251794085817</v>
+        <v>0.6159788096637256</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3165423965758565</v>
+        <v>0.686165127218256</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3681164641425222</v>
+        <v>0.5936987325509109</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4566835856787694</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.2426217376977222</v>
+        <v>0.8576438121889344</v>
       </c>
     </row>
     <row r="22">
@@ -1593,34 +1528,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-10.9181669550724</v>
+        <v>0.6166640517859907</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2995617203586911</v>
+        <v>0.5639203973202785</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2810857240361497</v>
+        <v>0.5588899200459683</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3183782736431794</v>
+        <v>0.6013270098371213</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3338913416917921</v>
+        <v>0.6497496606752713</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8229900583840124</v>
+        <v>0.638059074498138</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2567889596494128</v>
+        <v>0.6394395803142389</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2787876934302309</v>
+        <v>0.5611619270496143</v>
       </c>
       <c r="N22" t="n">
-        <v>0.4479458798506923</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.3164251447333257</v>
+        <v>0.8515393028359909</v>
       </c>
     </row>
     <row r="23">
@@ -1646,34 +1578,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-10.72618923023164</v>
+        <v>0.7329513392486269</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3018427706456829</v>
+        <v>0.575849999177136</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4536502906197868</v>
+        <v>0.9023532226570946</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3019466076076006</v>
+        <v>0.8043491720067202</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2303339987425469</v>
+        <v>0.8480261606611101</v>
       </c>
       <c r="K23" t="n">
-        <v>0.823643476365322</v>
+        <v>1.154884489308201</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3035615445279609</v>
+        <v>0.9502746002678047</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2780929595793681</v>
+        <v>0.5873257670379519</v>
       </c>
       <c r="N23" t="n">
-        <v>0.4361438816723869</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.2270436018540302</v>
+        <v>0.8596102923638532</v>
       </c>
     </row>
     <row r="24">
@@ -1699,34 +1628,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-12.2001614671585</v>
+        <v>0.6116684245182376</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7859439470026772</v>
+        <v>0.5808991827055636</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5738253109538206</v>
+        <v>0.8318908898490085</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8647302407095083</v>
+        <v>0.5974550344492254</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8053580720500954</v>
+        <v>0.6434434589628736</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6777566771997651</v>
+        <v>0.6830234903337824</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9882397675023082</v>
+        <v>0.7252431028525861</v>
       </c>
       <c r="M24" t="n">
-        <v>1.427533598133154</v>
+        <v>0.5891459325951937</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9893607438832255</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.009181522483439</v>
+        <v>0.8393407005799141</v>
       </c>
     </row>
     <row r="25">
@@ -1752,34 +1678,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-12.44897834542954</v>
+        <v>0.5962876166093992</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1676900696445014</v>
+        <v>0.5779684890189307</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2511291232124205</v>
+        <v>0.7198643536281423</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2781656602250006</v>
+        <v>0.6357867839450184</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4387373481867253</v>
+        <v>0.6661136382177197</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7738422892098933</v>
+        <v>0.6866654549183088</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2346016176168173</v>
+        <v>1.097018854895182</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4364240034740199</v>
+        <v>0.5952914921738442</v>
       </c>
       <c r="N25" t="n">
-        <v>0.4943228036595011</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.362627011640877</v>
+        <v>0.8218890827182036</v>
       </c>
     </row>
   </sheetData>
